--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ccl21b-Ackr4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ccl21b-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,10 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ccl21b</t>
   </si>
   <si>
     <t>Ackr4</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -440,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,61 +522,495 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.2073196666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.6219589999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.4385567570045022</v>
+      </c>
+      <c r="J2">
+        <v>0.4385567570045022</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M2">
+        <v>0.1636346666666667</v>
+      </c>
+      <c r="N2">
+        <v>0.490904</v>
+      </c>
+      <c r="O2">
+        <v>0.1786204457433447</v>
+      </c>
+      <c r="P2">
+        <v>0.1786204457433446</v>
+      </c>
+      <c r="Q2">
+        <v>0.03392468454844445</v>
+      </c>
+      <c r="R2">
+        <v>0.305322160936</v>
+      </c>
+      <c r="S2">
+        <v>0.07833520341989987</v>
+      </c>
+      <c r="T2">
+        <v>0.07833520341989986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.2073196666666667</v>
+      </c>
+      <c r="H3">
+        <v>0.6219589999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.4385567570045022</v>
+      </c>
+      <c r="J3">
+        <v>0.4385567570045022</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.6537306666666667</v>
+      </c>
+      <c r="N3">
+        <v>1.961192</v>
+      </c>
+      <c r="O3">
+        <v>0.7135997857590926</v>
+      </c>
+      <c r="P3">
+        <v>0.7135997857590924</v>
+      </c>
+      <c r="Q3">
+        <v>0.1355312239031111</v>
+      </c>
+      <c r="R3">
+        <v>1.219781015128</v>
+      </c>
+      <c r="S3">
+        <v>0.3129540078416152</v>
+      </c>
+      <c r="T3">
+        <v>0.3129540078416151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.2073196666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.6219589999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.4385567570045022</v>
+      </c>
+      <c r="J4">
+        <v>0.4385567570045022</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.023457</v>
+      </c>
+      <c r="N4">
+        <v>0.070371</v>
+      </c>
+      <c r="O4">
+        <v>0.02560520873206351</v>
+      </c>
+      <c r="P4">
+        <v>0.02560520873206351</v>
+      </c>
+      <c r="Q4">
+        <v>0.004863097421</v>
+      </c>
+      <c r="R4">
+        <v>0.04376787678899999</v>
+      </c>
+      <c r="S4">
+        <v>0.01122933730395714</v>
+      </c>
+      <c r="T4">
+        <v>0.01122933730395713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.2073196666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.6219589999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.4385567570045022</v>
+      </c>
+      <c r="J5">
+        <v>0.4385567570045022</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.07528033333333332</v>
+      </c>
+      <c r="N5">
+        <v>0.225841</v>
+      </c>
+      <c r="O5">
+        <v>0.08217455976549935</v>
+      </c>
+      <c r="P5">
+        <v>0.08217455976549934</v>
+      </c>
+      <c r="Q5">
+        <v>0.01560709361322222</v>
+      </c>
+      <c r="R5">
+        <v>0.140463842519</v>
+      </c>
+      <c r="S5">
+        <v>0.03603820843903004</v>
+      </c>
+      <c r="T5">
+        <v>0.03603820843903004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.265412</v>
+      </c>
+      <c r="H6">
+        <v>0.7962360000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.5614432429954979</v>
+      </c>
+      <c r="J6">
+        <v>0.5614432429954979</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.1636346666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.490904</v>
+      </c>
+      <c r="O6">
+        <v>0.1786204457433447</v>
+      </c>
+      <c r="P6">
+        <v>0.1786204457433446</v>
+      </c>
+      <c r="Q6">
+        <v>0.04343060414933334</v>
+      </c>
+      <c r="R6">
+        <v>0.390875437344</v>
+      </c>
+      <c r="S6">
+        <v>0.1002852423234448</v>
+      </c>
+      <c r="T6">
+        <v>0.1002852423234448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.194819127480839</v>
-      </c>
-      <c r="H2">
-        <v>0.194819127480839</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0.558307900182509</v>
-      </c>
-      <c r="N2">
-        <v>0.558307900182509</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0.1087690579792157</v>
-      </c>
-      <c r="R2">
-        <v>0.1087690579792157</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.265412</v>
+      </c>
+      <c r="H7">
+        <v>0.7962360000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.5614432429954979</v>
+      </c>
+      <c r="J7">
+        <v>0.5614432429954979</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.6537306666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.961192</v>
+      </c>
+      <c r="O7">
+        <v>0.7135997857590926</v>
+      </c>
+      <c r="P7">
+        <v>0.7135997857590924</v>
+      </c>
+      <c r="Q7">
+        <v>0.1735079637013334</v>
+      </c>
+      <c r="R7">
+        <v>1.561571673312</v>
+      </c>
+      <c r="S7">
+        <v>0.4006457779174774</v>
+      </c>
+      <c r="T7">
+        <v>0.4006457779174774</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.265412</v>
+      </c>
+      <c r="H8">
+        <v>0.7962360000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.5614432429954979</v>
+      </c>
+      <c r="J8">
+        <v>0.5614432429954979</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.023457</v>
+      </c>
+      <c r="N8">
+        <v>0.070371</v>
+      </c>
+      <c r="O8">
+        <v>0.02560520873206351</v>
+      </c>
+      <c r="P8">
+        <v>0.02560520873206351</v>
+      </c>
+      <c r="Q8">
+        <v>0.006225769284000001</v>
+      </c>
+      <c r="R8">
+        <v>0.05603192355600001</v>
+      </c>
+      <c r="S8">
+        <v>0.01437587142810638</v>
+      </c>
+      <c r="T8">
+        <v>0.01437587142810638</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.265412</v>
+      </c>
+      <c r="H9">
+        <v>0.7962360000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.5614432429954979</v>
+      </c>
+      <c r="J9">
+        <v>0.5614432429954979</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.07528033333333332</v>
+      </c>
+      <c r="N9">
+        <v>0.225841</v>
+      </c>
+      <c r="O9">
+        <v>0.08217455976549935</v>
+      </c>
+      <c r="P9">
+        <v>0.08217455976549934</v>
+      </c>
+      <c r="Q9">
+        <v>0.01998030383066667</v>
+      </c>
+      <c r="R9">
+        <v>0.179822734476</v>
+      </c>
+      <c r="S9">
+        <v>0.04613635132646932</v>
+      </c>
+      <c r="T9">
+        <v>0.04613635132646931</v>
       </c>
     </row>
   </sheetData>
